--- a/src/test/resources/testfiles/upload/Product_Category_MappingOLD.xlsx
+++ b/src/test/resources/testfiles/upload/Product_Category_MappingOLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nogpoinc-my.sharepoint.com/personal/tgarodia_supplycopia_com/Documents/Work/Product/Pricing database, CMS, RFP/bulk upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soft\New program\Workbench\sc-qa-taf-workbench\src\test\resources\testfiles\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8A691159-A76B-460E-956D-CF0312429057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747FAB54-BB2F-4F56-ACFF-EB2FEE960B2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD725DE9-5F12-4EC7-8E58-D22277A6BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B4019B4-148E-4314-AB7A-44BB0D6A7261}"/>
+    <workbookView xWindow="3285" yWindow="1035" windowWidth="15375" windowHeight="10920" xr2:uid="{0B4019B4-148E-4314-AB7A-44BB0D6A7261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -40,41 +40,95 @@
     <t>Sub Category</t>
   </si>
   <si>
-    <t>Category-1</t>
-  </si>
-  <si>
-    <t>Sub Category-1</t>
-  </si>
-  <si>
-    <t>Category-2</t>
-  </si>
-  <si>
-    <t>Sub Category-2</t>
-  </si>
-  <si>
-    <t>Category-3</t>
-  </si>
-  <si>
-    <t>Sub Category-3</t>
-  </si>
-  <si>
-    <t>Product Reference No.</t>
-  </si>
-  <si>
-    <t>Product-1</t>
-  </si>
-  <si>
-    <t>Product-2</t>
-  </si>
-  <si>
-    <t>Product-3</t>
+    <t>Product Reference No</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-001</t>
+  </si>
+  <si>
+    <t>Cat KK 001</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 001</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-002</t>
+  </si>
+  <si>
+    <t>Cat KK 002</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 002</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-003</t>
+  </si>
+  <si>
+    <t>Cat KK 003</t>
+  </si>
+  <si>
+    <t>Sub Cat KK 003</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-004</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-005</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-006</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-007</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-008</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-009</t>
+  </si>
+  <si>
+    <t>Cat KKK 007</t>
+  </si>
+  <si>
+    <t>Cat KKK 008</t>
+  </si>
+  <si>
+    <t>Cat KKK 009</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 007</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 008</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 009</t>
+  </si>
+  <si>
+    <t>Cat KKK 006</t>
+  </si>
+  <si>
+    <t>Cat KKK 005</t>
+  </si>
+  <si>
+    <t>Cat KKK 004</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 004</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 005</t>
+  </si>
+  <si>
+    <t>Sub Cat KKK 006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +150,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,13 +179,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64A01A-7570-4791-876D-11EBE8CC5F7E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -458,37 +540,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
